--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_4_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_4_sine_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[49.86848197175083, 50.09098950566415]</t>
+          <t>[49.86848824929016, 50.09098322812482]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.96326606944326, 50.12326335230291]</t>
+          <t>[49.9630732407347, 50.12345618101146]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[49.91410720427401, 50.20299732382508]</t>
+          <t>[49.91596268719528, 50.20114184090381]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.9195854458953, 50.095199349509365]</t>
+          <t>[49.91957618909732, 50.095208606307345]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[49.869935102255376, 50.17666649781244]</t>
+          <t>[49.8688696571068, 50.17773194296102]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.82856662422652, 49.99853757000111]</t>
+          <t>[49.82872672181338, 49.99837747241425]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[49.88815575247625, 50.165038836501765]</t>
+          <t>[49.88708651385721, 50.1661080751208]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.89443292878483, 50.0375260046927]</t>
+          <t>[49.894313088102066, 50.037645845375465]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.80349272431811, 50.1487976790549]</t>
+          <t>[49.80595047620726, 50.146339927165755]</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.87865921513027, 50.05482374782744]</t>
+          <t>[49.878854617897694, 50.05462834506002]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[49.85417983937194, 50.16854969796721]</t>
+          <t>[49.85349469012344, 50.169234847215705]</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.93687670121882, 50.108148377714]</t>
+          <t>[49.93691333315288, 50.108111745779944]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[49.80476743105463, 50.09246450320431]</t>
+          <t>[49.80520944595636, 50.09202248830258]</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.92998032752364, 50.117351600778875]</t>
+          <t>[49.929931324276644, 50.11740060402587]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[49.75590750865384, 50.07960771687275]</t>
+          <t>[49.758185987673386, 50.077329237853206]</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.925936127469846, 50.106594487934764]</t>
+          <t>[49.925853921652894, 50.106676693751716]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[49.737845493209974, 50.054782499144466]</t>
+          <t>[49.730321754939936, 50.062306237414504]</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.88534893179532, 50.05579001361697]</t>
+          <t>[49.88548510526114, 50.05565384015115]</t>
         </is>
       </c>
       <c r="V10" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_4_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_4_sine_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[49.86848824929016, 50.09098322812482]</t>
+          <t>[49.86850264613728, 50.0909688312777]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.9630732407347, 50.12345618101146]</t>
+          <t>[49.96321045435489, 50.12331896739127]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[49.91596268719528, 50.20114184090381]</t>
+          <t>[49.91485356324926, 50.20225096484983]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.91957618909732, 50.095208606307345]</t>
+          <t>[49.919774714231735, 50.09501008117293]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[49.8688696571068, 50.17773194296102]</t>
+          <t>[49.86813450024038, 50.17846709982744]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.82872672181338, 49.99837747241425]</t>
+          <t>[49.828608217388535, 49.998495976839095]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[49.88708651385721, 50.1661080751208]</t>
+          <t>[49.88803196273036, 50.16516262624766]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.894313088102066, 50.037645845375465]</t>
+          <t>[49.89431939383361, 50.03763953964392]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.80595047620726, 50.146339927165755]</t>
+          <t>[49.80203495352157, 50.15025544985144]</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.878854617897694, 50.05462834506002]</t>
+          <t>[49.878712957722655, 50.054770005235056]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[49.85349469012344, 50.169234847215705]</t>
+          <t>[49.8485334293102, 50.174196108028944]</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.93691333315288, 50.108111745779944]</t>
+          <t>[49.936913252897476, 50.10811182603535]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[49.80520944595636, 50.09202248830258]</t>
+          <t>[49.806069294924676, 50.091162639334264]</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.929931324276644, 50.11740060402587]</t>
+          <t>[49.929865901943145, 50.11746602635937]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[49.758185987673386, 50.077329237853206]</t>
+          <t>[49.75588608421712, 50.079629141309475]</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.925853921652894, 50.106676693751716]</t>
+          <t>[49.92593174635327, 50.10659886905134]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[49.730321754939936, 50.062306237414504]</t>
+          <t>[49.73156567073633, 50.06106232161811]</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.88548510526114, 50.05565384015115]</t>
+          <t>[49.88544792499175, 50.05569102042054]</t>
         </is>
       </c>
       <c r="V10" t="n">
